--- a/BriefTasks 2013-08-12.xlsx
+++ b/BriefTasks 2013-08-12.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="175">
   <si>
     <t>Section</t>
   </si>
@@ -488,6 +488,96 @@
   </si>
   <si>
     <t>Is this done? -stu</t>
+  </si>
+  <si>
+    <t>Red text:</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>Finalize the number of schools in the paragraph above when the rest of the brief is done.</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>There are lots of greenwashing ads - possibly even from Shell - that we can use to demonstrate that the fossil fuel industry itself acknowledges climate change.</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>Canadian domestic law: Insert summary paragraph, once other text finalized</t>
+  </si>
+  <si>
+    <t>Find as many examples as possible for "Canadian courts have recognized the seriousness of climate change in their decisions.". Make sure the final text here corresponds to the related question in the FAQ.</t>
+  </si>
+  <si>
+    <t>It would be good to have more evidence to substantiate the claim that the fossil fuel industry has undue influence with Canada's government: amount of contact between ministers and industry representatives, etc</t>
+  </si>
+  <si>
+    <t>s5</t>
+  </si>
+  <si>
+    <t>It would be good to find a few more examples here: Regional, state, and local level (US)</t>
+  </si>
+  <si>
+    <t>s6</t>
+  </si>
+  <si>
+    <t>This is a section where we need to be very careful to maintain a dispassionate tone and to include strong evidence supporting our factual and legal claims. Ideally, we want impeccably-documented examples of wrongdoing by Shell, along with information on which laws they have violated.</t>
+  </si>
+  <si>
+    <t>s7</t>
+  </si>
+  <si>
+    <t>Find information about how U of T divested from South Africa before Canada passed the law to facilitate that. Also, the tobacco precedent.</t>
+  </si>
+  <si>
+    <t>* Legal efforts by small island states</t>
+  </si>
+  <si>
+    <t>* One example: https://www.sindark.com/2008/09/14/carbon-emissions-worse-than-criminal-damage/</t>
+  </si>
+  <si>
+    <t>* Fossil fuel companies also cause injury in forms other than climate</t>
+  </si>
+  <si>
+    <t>* Oil spills - Deepwater Horizon</t>
+  </si>
+  <si>
+    <t>* Toxic air pollution - deaths from coal</t>
+  </si>
+  <si>
+    <t>* This guy might be able to make some suggestions: http://www.law.columbia.edu/courses/L8451-advanced-climate-change-law/spring-2013/section-001</t>
+  </si>
+  <si>
+    <t>* Also: http://envirolaw.com/about/meet-dianne/</t>
+  </si>
+  <si>
+    <t>s11</t>
+  </si>
+  <si>
+    <t>Insert the correct date once the brief has been opened for signature</t>
+  </si>
+  <si>
+    <t>(Compiled by doing a project-wide search for \begin{vcom} )</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Done by Stu</t>
+  </si>
+  <si>
+    <t>What about bib?</t>
+  </si>
+  <si>
+    <t>Otherwise Done by stu</t>
   </si>
 </sst>
 </file>
@@ -497,7 +587,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1009]d/mmm/yy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -549,8 +639,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -569,6 +667,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -764,7 +868,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -830,9 +934,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -864,6 +965,28 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="183">
@@ -1378,10 +1501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1394,23 +1517,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="27" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1863,7 +1986,7 @@
       <c r="D24" s="10">
         <v>41450</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="36">
         <v>41464</v>
       </c>
       <c r="F24" s="11"/>
@@ -2460,7 +2583,7 @@
       <c r="D55" s="15">
         <v>41446</v>
       </c>
-      <c r="E55" s="36">
+      <c r="E55" s="35">
         <v>41457</v>
       </c>
       <c r="F55" s="16"/>
@@ -3164,22 +3287,28 @@
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="31"/>
-      <c r="B96" s="32" t="s">
+      <c r="A96" s="30"/>
+      <c r="B96" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="C96" s="33"/>
-      <c r="D96" s="34"/>
-      <c r="E96" s="34"/>
-      <c r="F96" s="35"/>
-      <c r="G96" s="33"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="32"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B97" s="25" t="s">
+      <c r="B97" s="24" t="s">
         <v>128</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D97" s="3">
+        <v>41498</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>34</v>
@@ -3214,8 +3343,17 @@
       <c r="A100" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B100" s="22" t="s">
+      <c r="B100" s="44" t="s">
         <v>37</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E100" s="3">
+        <v>41498</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>34</v>
@@ -3432,15 +3570,15 @@
       </c>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="31"/>
-      <c r="B124" s="32" t="s">
+      <c r="A124" s="30"/>
+      <c r="B124" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C124" s="33"/>
-      <c r="D124" s="34"/>
-      <c r="E124" s="34"/>
-      <c r="F124" s="35"/>
-      <c r="G124" s="33"/>
+      <c r="C124" s="32"/>
+      <c r="D124" s="33"/>
+      <c r="E124" s="33"/>
+      <c r="F124" s="34"/>
+      <c r="G124" s="32"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="2" t="s">
@@ -3545,6 +3683,146 @@
       </c>
       <c r="H130" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" s="40" customFormat="1">
+      <c r="A134" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B134" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C134" s="38"/>
+      <c r="D134" s="39"/>
+      <c r="E134" s="39"/>
+      <c r="G134" s="38"/>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B135" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="30">
+      <c r="A136" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="B136" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B137" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="30">
+      <c r="A138" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B138" s="22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="30">
+      <c r="A139" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B139" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="B140" s="22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="45">
+      <c r="A141" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="B141" s="22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="30">
+      <c r="A142" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B142" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B143" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="B144" s="22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="B145" s="22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="B146" s="22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="B147" s="22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="30">
+      <c r="A148" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="B148" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="B149" s="22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="B150" s="22" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
